--- a/analyses/etnp2017-p2-mclane-profile.xlsx
+++ b/analyses/etnp2017-p2-mclane-profile.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A14C0DC-F21B-C345-95BC-ED2CBACDCA4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B4B3A-367C-9147-9E34-F0894549E8DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="2140" windowWidth="24640" windowHeight="13660" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
+    <workbookView xWindow="720" yWindow="640" windowWidth="28040" windowHeight="14680" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MED4" sheetId="17" r:id="rId2"/>
+    <sheet name="ptm" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Sample running #</t>
   </si>
@@ -115,19 +117,246 @@
   </si>
   <si>
     <t>MSMS spectra</t>
+  </si>
+  <si>
+    <t>PSMs</t>
+  </si>
+  <si>
+    <t>ID'd proteins</t>
+  </si>
+  <si>
+    <t>de novo only spectra</t>
+  </si>
+  <si>
+    <t>NT1:2-9_94m_topnw1</t>
+  </si>
+  <si>
+    <t>NT5:4-19_965m_nw1</t>
+  </si>
+  <si>
+    <t>NT7:GF75-blank</t>
+  </si>
+  <si>
+    <t>NT8:GF75-blank</t>
+  </si>
+  <si>
+    <t>NT6:4-19_965m_nw4</t>
+  </si>
+  <si>
+    <t>NT2:2-9_94m_topnw4</t>
+  </si>
+  <si>
+    <t>NT3:4-11_265m_topnw1</t>
+  </si>
+  <si>
+    <t>NT4:4-11_265m_topnw4</t>
+  </si>
+  <si>
+    <t>% PSM Deamidated</t>
+  </si>
+  <si>
+    <t>% PSM Carbamidomethylated</t>
+  </si>
+  <si>
+    <t>% PSM oxidized M</t>
+  </si>
+  <si>
+    <t>Carbamidomethylation</t>
+  </si>
+  <si>
+    <t>[C]</t>
+  </si>
+  <si>
+    <t>Deamidation (NQ)</t>
+  </si>
+  <si>
+    <t>[NQ]</t>
+  </si>
+  <si>
+    <t>Deamination</t>
+  </si>
+  <si>
+    <t>[X]</t>
+  </si>
+  <si>
+    <t>Dehydration</t>
+  </si>
+  <si>
+    <t>[DYTS], [NQ]@C</t>
+  </si>
+  <si>
+    <t>Methylation(C-term)</t>
+  </si>
+  <si>
+    <t>[X]@C</t>
+  </si>
+  <si>
+    <t>Oxidation (HW)</t>
+  </si>
+  <si>
+    <t>[HW]</t>
+  </si>
+  <si>
+    <t>Oxidation (M)</t>
+  </si>
+  <si>
+    <t>[M]</t>
+  </si>
+  <si>
+    <t>Phosphorylation (HCDR)</t>
+  </si>
+  <si>
+    <t>[HCDR]</t>
+  </si>
+  <si>
+    <t>Phosphorylation (STY)</t>
+  </si>
+  <si>
+    <t>[STY]</t>
+  </si>
+  <si>
+    <t>Sulfation</t>
+  </si>
+  <si>
+    <t>[YST]</t>
+  </si>
+  <si>
+    <t>Ubiquitination</t>
+  </si>
+  <si>
+    <t>[K]</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass </t>
+  </si>
+  <si>
+    <t>Possible residue sites (X = any)</t>
+  </si>
+  <si>
+    <t>Formylation</t>
+  </si>
+  <si>
+    <t>[K], [X]@N</t>
+  </si>
+  <si>
+    <t>Acetylation</t>
+  </si>
+  <si>
+    <t>N-term</t>
+  </si>
+  <si>
+    <t>Cation:K</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Dimethylation(KR)</t>
+  </si>
+  <si>
+    <t>Methylation(others)</t>
+  </si>
+  <si>
+    <t>Deoxygenation</t>
+  </si>
+  <si>
+    <t>[DE]</t>
+  </si>
+  <si>
+    <t>[DE],C-term</t>
+  </si>
+  <si>
+    <t>[KR]</t>
+  </si>
+  <si>
+    <t>Pyro-glu from Q</t>
+  </si>
+  <si>
+    <t>Ethylation</t>
+  </si>
+  <si>
+    <t>[DEST]</t>
+  </si>
+  <si>
+    <t>[ST]</t>
+  </si>
+  <si>
+    <t>[DE],N-term</t>
+  </si>
+  <si>
+    <t>% DNO peptides modified</t>
+  </si>
+  <si>
+    <t>Cyano DNO sequences</t>
+  </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>Matched to phyla or lower</t>
+  </si>
+  <si>
+    <t>unique cyanobacterial peptides</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sequenced peptides unique to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>de novo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pool</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,15 +384,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,6 +428,6332 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>suspended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> organic matter, 2.7 - 0.3 um</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>peptide spectrum matches</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0F6D-7A43-BD56-9B0B583B55EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>identified proteins</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0F6D-7A43-BD56-9B0B583B55EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1254460207"/>
+        <c:axId val="1250710127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1254460207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250710127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250710127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254460207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>suspended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> organic matter, 2.7 - 0.3 um</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS spectra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A622-4647-BD96-E3DE82E0AD15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1254460207"/>
+        <c:axId val="1250710127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1254460207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250710127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250710127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254460207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>suspended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> organic matter, &gt; 2.7 um </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>peptide spectrum matches</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0F-DE40-A27A-CDCBBFB47F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>identified proteins</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0F-DE40-A27A-CDCBBFB47F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1254460207"/>
+        <c:axId val="1250710127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1254460207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250710127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250710127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254460207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>suspended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> organic matter, &gt; 2.7 um</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS spectra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E00-C344-B582-74C00CB083F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1254460207"/>
+        <c:axId val="1250710127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1254460207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250710127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250710127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254460207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>sinking</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> organic matter from sediment trap net</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25913749789168122"/>
+          <c:y val="1.871657754010695E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>peptide spectrum matches</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59E2-974D-BA7A-F0B1631A4AA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>identified proteins</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59E2-974D-BA7A-F0B1631A4AA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1254460207"/>
+        <c:axId val="1250710127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1254460207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250710127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250710127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254460207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Percent of variable modification</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" i="1" baseline="0"/>
+              <a:t>de novo </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>only peptides</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.55122900949136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.597722960151803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.478465382919302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.44579321892005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.381185911725368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.380033557046978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2062-2D40-9786-391BCF23FC7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1301895023"/>
+        <c:axId val="771191967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1301895023"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771191967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771191967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301895023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55F4F0C-980B-C54F-8993-ABD7BDAF68E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586FE0B6-F9F1-9A45-B0AE-AE2201396E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F1FB7D-BB60-6F4A-A5D9-4178121407F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306AB60D-B011-7249-B380-A59AE8E908B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309E75AF-F06A-494E-8343-6F44D866E51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6766C0-F9D3-5543-8E08-9B6A190B1C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,20 +7053,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FAA684-DE3F-5A4C-BBF8-96E0D7E03E10}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="32">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="80">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +7089,44 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>230</v>
       </c>
@@ -536,8 +7148,46 @@
       <c r="G2">
         <v>34535</v>
       </c>
+      <c r="H2">
+        <v>2952</v>
+      </c>
+      <c r="I2">
+        <v>1285</v>
+      </c>
+      <c r="J2">
+        <v>9495</v>
+      </c>
+      <c r="K2">
+        <v>9.5528455284552845</v>
+      </c>
+      <c r="L2">
+        <v>5.1829268292682924</v>
+      </c>
+      <c r="M2">
+        <v>4.0989159891598916</v>
+      </c>
+      <c r="N2">
+        <f>4473/28763</f>
+        <v>0.1555122900949136</v>
+      </c>
+      <c r="O2">
+        <f>N2*100</f>
+        <v>15.55122900949136</v>
+      </c>
+      <c r="R2" s="4">
+        <v>50</v>
+      </c>
+      <c r="S2" s="4">
+        <v>9495</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2881</v>
+      </c>
+      <c r="U2" s="4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>231</v>
       </c>
@@ -559,8 +7209,46 @@
       <c r="G3">
         <v>21252</v>
       </c>
+      <c r="H3">
+        <v>2422</v>
+      </c>
+      <c r="I3">
+        <v>1406</v>
+      </c>
+      <c r="J3">
+        <v>3377</v>
+      </c>
+      <c r="K3">
+        <v>5.5739058629232039</v>
+      </c>
+      <c r="L3">
+        <v>4.7068538398018163</v>
+      </c>
+      <c r="M3">
+        <v>6.0280759702725017</v>
+      </c>
+      <c r="N3">
+        <f>1233/7905</f>
+        <v>0.15597722960151802</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="0">N3*100</f>
+        <v>15.597722960151803</v>
+      </c>
+      <c r="R3" s="4">
+        <v>100</v>
+      </c>
+      <c r="S3" s="4">
+        <v>3377</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1294</v>
+      </c>
+      <c r="U3" s="4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>232</v>
       </c>
@@ -582,8 +7270,46 @@
       <c r="G4">
         <v>18113</v>
       </c>
+      <c r="H4">
+        <v>1657</v>
+      </c>
+      <c r="I4">
+        <v>1335</v>
+      </c>
+      <c r="J4">
+        <v>2653</v>
+      </c>
+      <c r="K4">
+        <v>6.5781532890766448</v>
+      </c>
+      <c r="L4">
+        <v>4.586602293301147</v>
+      </c>
+      <c r="M4">
+        <v>4.7676523838261913</v>
+      </c>
+      <c r="N4">
+        <f>1053/6803</f>
+        <v>0.15478465382919301</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>15.478465382919302</v>
+      </c>
+      <c r="R4" s="4">
+        <v>130</v>
+      </c>
+      <c r="S4" s="4">
+        <v>2653</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1082</v>
+      </c>
+      <c r="U4" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>233</v>
       </c>
@@ -605,8 +7331,46 @@
       <c r="G5">
         <v>18899</v>
       </c>
+      <c r="H5">
+        <v>1804</v>
+      </c>
+      <c r="I5">
+        <v>1170</v>
+      </c>
+      <c r="J5">
+        <v>2826</v>
+      </c>
+      <c r="K5">
+        <v>5.6541019955654104</v>
+      </c>
+      <c r="L5">
+        <v>6.2638580931263856</v>
+      </c>
+      <c r="M5">
+        <v>3.1042128603104215</v>
+      </c>
+      <c r="N5">
+        <f>1107/7167</f>
+        <v>0.15445793218920051</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>15.44579321892005</v>
+      </c>
+      <c r="R5" s="4">
+        <v>265</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2826</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1067</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>234</v>
       </c>
@@ -628,8 +7392,46 @@
       <c r="G6">
         <v>14042</v>
       </c>
+      <c r="H6">
+        <v>981</v>
+      </c>
+      <c r="I6">
+        <v>824</v>
+      </c>
+      <c r="J6">
+        <v>1865</v>
+      </c>
+      <c r="K6">
+        <v>7.0050761421319798</v>
+      </c>
+      <c r="L6">
+        <v>4.9746192893401018</v>
+      </c>
+      <c r="M6">
+        <v>3.654822335025381</v>
+      </c>
+      <c r="N6">
+        <f>690/4486</f>
+        <v>0.15381185911725367</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>15.381185911725368</v>
+      </c>
+      <c r="R6" s="4">
+        <v>300</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1865</v>
+      </c>
+      <c r="T6" s="4">
+        <v>804</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>235</v>
       </c>
@@ -651,238 +7453,904 @@
       <c r="G7">
         <v>5300</v>
       </c>
+      <c r="H7">
+        <v>146</v>
+      </c>
+      <c r="I7">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>422</v>
+      </c>
+      <c r="L7">
+        <f>10/H7*100</f>
+        <v>6.8493150684931505</v>
+      </c>
+      <c r="N7">
+        <f>781/4768</f>
+        <v>0.1638003355704698</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>16.380033557046978</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1200</v>
+      </c>
+      <c r="S7" s="4">
+        <v>422</v>
+      </c>
+      <c r="T7" s="4">
+        <v>170</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:21">
       <c r="A8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
       <c r="F8">
-        <v>24703</v>
+        <v>20347</v>
       </c>
       <c r="G8">
-        <v>5116</v>
+        <v>17310</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>115</v>
       </c>
       <c r="E9">
         <v>0.3</v>
       </c>
+      <c r="F9">
+        <v>15930</v>
+      </c>
+      <c r="G9">
+        <v>34506</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:21">
       <c r="A10">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E10">
         <v>0.3</v>
       </c>
+      <c r="F10">
+        <v>16174</v>
+      </c>
+      <c r="G10">
+        <v>33351</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="E11">
         <v>0.3</v>
       </c>
+      <c r="F11">
+        <v>17520</v>
+      </c>
+      <c r="G11">
+        <v>28443</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>0.3</v>
       </c>
+      <c r="F12">
+        <v>17252</v>
+      </c>
+      <c r="G12">
+        <v>29256</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:21">
       <c r="A13">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>400</v>
+        <v>965</v>
       </c>
       <c r="E13">
         <v>0.3</v>
       </c>
+      <c r="F13">
+        <v>20664</v>
+      </c>
+      <c r="G13">
+        <v>15893</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F14">
+        <v>15645</v>
+      </c>
+      <c r="G14">
+        <v>35948</v>
+      </c>
+      <c r="H14">
+        <v>1369</v>
+      </c>
+      <c r="I14">
+        <v>438</v>
+      </c>
+      <c r="J14">
+        <v>6797</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:21">
       <c r="A15">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>965</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F15">
+        <v>20301</v>
+      </c>
+      <c r="G15">
+        <v>16693</v>
+      </c>
+      <c r="H15">
+        <v>762</v>
+      </c>
+      <c r="I15">
+        <v>327</v>
+      </c>
+      <c r="J15">
+        <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:21">
       <c r="A16">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F16">
+        <v>21541</v>
+      </c>
+      <c r="G16">
+        <v>12626</v>
+      </c>
+      <c r="H16">
+        <v>367</v>
+      </c>
+      <c r="I16">
+        <v>213</v>
+      </c>
+      <c r="J16">
+        <v>1549</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:11">
       <c r="A17">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>265</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F17">
+        <v>22925</v>
+      </c>
+      <c r="G17">
+        <v>9130</v>
+      </c>
+      <c r="H17">
+        <v>291</v>
+      </c>
+      <c r="I17">
+        <v>187</v>
+      </c>
+      <c r="J17">
+        <v>846</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:11">
       <c r="A18">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E18">
         <v>2.7</v>
       </c>
+      <c r="F18">
+        <v>22739</v>
+      </c>
+      <c r="G18">
+        <v>9624</v>
+      </c>
+      <c r="H18">
+        <v>310</v>
+      </c>
+      <c r="I18">
+        <v>251</v>
+      </c>
+      <c r="J18">
+        <v>639</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:11">
       <c r="A19">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E19">
         <v>2.7</v>
       </c>
+      <c r="F19">
+        <v>24799</v>
+      </c>
+      <c r="G19">
+        <v>5065</v>
+      </c>
+      <c r="H19">
+        <v>180</v>
+      </c>
+      <c r="I19">
+        <v>111</v>
+      </c>
+      <c r="J19">
+        <v>164</v>
+      </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:11">
       <c r="A20">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E20">
-        <v>2.7</v>
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>23057</v>
+      </c>
+      <c r="G20">
+        <v>8580</v>
+      </c>
+      <c r="H20">
+        <v>258</v>
+      </c>
+      <c r="I20">
+        <v>247</v>
+      </c>
+      <c r="J20">
+        <v>1175</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21">
-        <v>249</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C21">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>0.3</v>
+      </c>
+      <c r="F21">
+        <v>23222</v>
+      </c>
+      <c r="G21">
+        <v>8200</v>
+      </c>
+      <c r="H21">
+        <v>262</v>
+      </c>
+      <c r="I21">
+        <v>180</v>
+      </c>
+      <c r="J21">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
         <v>265</v>
       </c>
-      <c r="E21">
-        <v>2.7</v>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+      <c r="F22">
+        <v>24915</v>
+      </c>
+      <c r="G22">
+        <v>4583</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
+      </c>
+      <c r="I22">
+        <v>184</v>
+      </c>
+      <c r="J22">
+        <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>250</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>300</v>
-      </c>
-      <c r="E22">
-        <v>2.7</v>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>265</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <v>24698</v>
+      </c>
+      <c r="G23">
+        <v>5215</v>
+      </c>
+      <c r="H23">
+        <v>193</v>
+      </c>
+      <c r="I23">
+        <v>117</v>
+      </c>
+      <c r="J23">
+        <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>251</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>1200</v>
-      </c>
-      <c r="E23">
-        <v>2.7</v>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>965</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24">
+        <v>20548</v>
+      </c>
+      <c r="G24">
+        <v>16045</v>
+      </c>
+      <c r="H24">
+        <v>476</v>
+      </c>
+      <c r="I24">
+        <v>224</v>
+      </c>
+      <c r="J24">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>965</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+      <c r="F25">
+        <v>18656</v>
+      </c>
+      <c r="G25">
+        <v>24005</v>
+      </c>
+      <c r="H25">
+        <v>664</v>
+      </c>
+      <c r="I25">
+        <v>228</v>
+      </c>
+      <c r="J25">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>236</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+      <c r="F28">
+        <v>24703</v>
+      </c>
+      <c r="G28">
+        <v>5116</v>
+      </c>
+      <c r="I28">
+        <v>94</v>
+      </c>
+      <c r="J28">
+        <v>258</v>
+      </c>
+      <c r="K28">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>237</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.3</v>
+      </c>
+      <c r="I29">
+        <v>265</v>
+      </c>
+      <c r="J29">
+        <v>169</v>
+      </c>
+      <c r="K29">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+      <c r="F30">
+        <v>25340</v>
+      </c>
+      <c r="G30">
+        <v>3892</v>
+      </c>
+      <c r="I30">
+        <v>965</v>
+      </c>
+      <c r="J30">
+        <v>476</v>
+      </c>
+      <c r="K30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>25328</v>
+      </c>
+      <c r="G31">
+        <v>3929</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91425-9F4A-7E4E-B842-3368493BFFE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0115FEF4-10D6-AD4F-B202-3A3DD39F98D4}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="32">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4">
+        <v>57.021464999999999</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.984016</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-1.032</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-18.010565</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4">
+        <v>14.015650000000001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15.994915000000001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15.994915000000001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4">
+        <v>79.966329999999999</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4">
+        <v>79.966329999999999</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4">
+        <v>79.956819999999993</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="4">
+        <v>383.22809999999998</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="4">
+        <v>27.994914999999999</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4">
+        <v>42.01</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>37.96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4">
+        <v>21.98</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4">
+        <v>28.03</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4">
+        <v>14.02</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-15.99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-17.03</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28.03</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analyses/etnp2017-p2-mclane-profile.xlsx
+++ b/analyses/etnp2017-p2-mclane-profile.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B4B3A-367C-9147-9E34-F0894549E8DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA3EA50-5499-9E41-86C2-8CB4AA1C1245}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="640" windowWidth="28040" windowHeight="14680" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
+    <workbookView xWindow="300" yWindow="560" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MED4" sheetId="17" r:id="rId2"/>
+    <sheet name="all data" sheetId="1" r:id="rId1"/>
+    <sheet name="100-965 comparison" sheetId="17" r:id="rId2"/>
     <sheet name="ptm" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>Sample running #</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>ID'd proteins</t>
-  </si>
-  <si>
-    <t>de novo only spectra</t>
   </si>
   <si>
     <t>NT1:2-9_94m_topnw1</t>
@@ -290,9 +287,6 @@
     <t>% DNO peptides modified</t>
   </si>
   <si>
-    <t>Cyano DNO sequences</t>
-  </si>
-  <si>
     <t>Depth (m)</t>
   </si>
   <si>
@@ -325,12 +319,39 @@
       <t xml:space="preserve"> pool</t>
     </r>
   </si>
+  <si>
+    <t>de novo only spectra &gt; 50%</t>
+  </si>
+  <si>
+    <t>Suspended 2.7&gt;GF75&gt;0.3</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinking </t>
+  </si>
+  <si>
+    <t>NT1:2-9_94m_topnw1+4</t>
+  </si>
+  <si>
+    <t>NT5:4-19_965m_nw1+4</t>
+  </si>
+  <si>
+    <t>de novo only peptides &gt; 50% ALC</t>
+  </si>
+  <si>
+    <t>de novo only peptides &gt; 50% ALC (ave)</t>
+  </si>
+  <si>
+    <t># of ID'd proteins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +378,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,6 +442,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +618,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -613,7 +645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:f>'all data'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -719,7 +751,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -746,7 +778,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:f>'all data'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1118,7 +1150,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1145,7 +1177,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>'all data'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1574,7 +1606,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1601,7 +1633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$H$19</c:f>
+              <c:f>'all data'!$H$14:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1707,7 +1739,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1734,7 +1766,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$19</c:f>
+              <c:f>'all data'!$I$14:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2106,7 +2138,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'all data'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2133,7 +2165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$14:$F$19</c:f>
+              <c:f>'all data'!$F$14:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2570,7 +2602,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$28:$I$30</c:f>
+              <c:f>'all data'!$I$28:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2588,7 +2620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$28:$J$30</c:f>
+              <c:f>'all data'!$J$28:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2685,7 +2717,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$28:$I$30</c:f>
+              <c:f>'all data'!$I$28:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2703,7 +2735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$28:$K$30</c:f>
+              <c:f>'all data'!$K$28:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3071,7 +3103,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:f>'all data'!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3254,6 +3286,694 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>de novo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> only peptides</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>suspended (0.3-2.7 um)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:srgbClr val="0070C0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>3377</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8CD7-0E46-855D-35AF5E24CBE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1655</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8CD7-0E46-855D-35AF5E24CBE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CD7-0E46-855D-35AF5E24CBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sinking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1175</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8CD7-0E46-855D-35AF5E24CBE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>6635</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8CD7-0E46-855D-35AF5E24CBE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CD7-0E46-855D-35AF5E24CBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="679452944"/>
+        <c:axId val="674288448"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="679452944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674288448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674288448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679452944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3497,6 +4217,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6508,6 +7268,541 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6756,6 +8051,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DA6BC9-8987-1548-9399-3D7087F0EEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2584</cdr:x>
+      <cdr:y>0.125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42526</cdr:x>
+      <cdr:y>0.19767</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1416050" y="546100"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>suspended </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69293</cdr:x>
+      <cdr:y>0.11919</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85979</cdr:x>
+      <cdr:y>0.19186</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3797300" y="520700"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sinking </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7055,9 +8554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FAA684-DE3F-5A4C-BBF8-96E0D7E03E10}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7096,34 +8595,31 @@
         <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7506,6 +9002,15 @@
       <c r="G8">
         <v>17310</v>
       </c>
+      <c r="H8">
+        <v>241</v>
+      </c>
+      <c r="I8">
+        <v>272</v>
+      </c>
+      <c r="J8">
+        <v>2313</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
@@ -7526,6 +9031,15 @@
       <c r="G9">
         <v>34506</v>
       </c>
+      <c r="H9">
+        <v>1538</v>
+      </c>
+      <c r="I9">
+        <v>1216</v>
+      </c>
+      <c r="J9">
+        <v>7561</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
@@ -7546,6 +9060,15 @@
       <c r="G10">
         <v>33351</v>
       </c>
+      <c r="H10">
+        <v>827</v>
+      </c>
+      <c r="I10">
+        <v>703</v>
+      </c>
+      <c r="J10">
+        <v>5766</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
@@ -7566,6 +9089,15 @@
       <c r="G11">
         <v>28443</v>
       </c>
+      <c r="H11">
+        <v>390</v>
+      </c>
+      <c r="I11">
+        <v>432</v>
+      </c>
+      <c r="J11">
+        <v>3867</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
@@ -7586,6 +9118,15 @@
       <c r="G12">
         <v>29256</v>
       </c>
+      <c r="H12">
+        <v>390</v>
+      </c>
+      <c r="I12">
+        <v>340</v>
+      </c>
+      <c r="J12">
+        <v>4263</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
@@ -7606,6 +9147,15 @@
       <c r="G13">
         <v>15893</v>
       </c>
+      <c r="H13">
+        <v>118</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>1655</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
@@ -7786,7 +9336,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>94</v>
@@ -7815,7 +9365,7 @@
         <v>265</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>94</v>
@@ -7844,7 +9394,7 @@
         <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>265</v>
@@ -7873,7 +9423,7 @@
         <v>267</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>265</v>
@@ -7902,7 +9452,7 @@
         <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>965</v>
@@ -7931,7 +9481,7 @@
         <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>965</v>
@@ -7960,7 +9510,7 @@
         <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -7974,7 +9524,7 @@
         <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -8093,13 +9643,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91425-9F4A-7E4E-B842-3368493BFFE4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="50" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>3377</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>965</v>
+      </c>
+      <c r="C4">
+        <v>1655</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>1175</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
+        <v>965</v>
+      </c>
+      <c r="C9">
+        <v>6635</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8120,233 +9778,233 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="32">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>57.021464999999999</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>0.984016</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4">
         <v>-1.032</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4">
         <v>-18.010565</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4">
         <v>14.015650000000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4">
         <v>15.994915000000001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4">
         <v>15.994915000000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4">
         <v>79.966329999999999</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4">
         <v>79.966329999999999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4">
         <v>79.956819999999993</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4">
         <v>383.22809999999998</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <v>27.994914999999999</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>42.01</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4">
         <v>37.96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4">
         <v>21.98</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4">
         <v>28.03</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4">
         <v>14.02</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4">
         <v>-15.99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4">
         <v>-17.03</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4">
         <v>28.03</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/etnp2017-p2-mclane-profile.xlsx
+++ b/analyses/etnp2017-p2-mclane-profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA3EA50-5499-9E41-86C2-8CB4AA1C1245}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172DCE0-FF54-954C-9485-4DBFD7413335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="560" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
+    <workbookView xWindow="4720" yWindow="460" windowWidth="42960" windowHeight="14540" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>Sample running #</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>NT4:4-11_265m_topnw4</t>
-  </si>
-  <si>
-    <t>% PSM Deamidated</t>
   </si>
   <si>
     <t>% PSM Carbamidomethylated</t>
@@ -345,6 +342,15 @@
   </si>
   <si>
     <t># of ID'd proteins</t>
+  </si>
+  <si>
+    <t># of PSMs</t>
+  </si>
+  <si>
+    <t># MSMS spectra</t>
+  </si>
+  <si>
+    <t>% PSM Deamidated + deaminated</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1054,714 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="0"/>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:t>MS spectra</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" i="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>suspended (0.3-2.7 um)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:srgbClr val="0070C0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>21252</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3E80-EA49-975A-67681E1282C7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>15893</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3E80-EA49-975A-67681E1282C7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$G$3:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>21252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E80-EA49-975A-67681E1282C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sinking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>8580</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3E80-EA49-975A-67681E1282C7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>24005</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3E80-EA49-975A-67681E1282C7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$G$8:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E80-EA49-975A-67681E1282C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="679452944"/>
+        <c:axId val="674288448"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="679452944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674288448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674288448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679452944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="49000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="57000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="46000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3925,7 +4639,31 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="49000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="57000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="46000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3948,12 +4686,1418 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="0"/>
+              <a:t>identified proteins</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>suspended (0.3-2.7 um)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:srgbClr val="0070C0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1406</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3659-4544-B0DD-BA7D9A7032D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>24</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3659-4544-B0DD-BA7D9A7032D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3659-4544-B0DD-BA7D9A7032D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sinking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>213</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3659-4544-B0DD-BA7D9A7032D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>226</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3659-4544-B0DD-BA7D9A7032D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$E$8:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3659-4544-B0DD-BA7D9A7032D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="679452944"/>
+        <c:axId val="674288448"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="679452944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674288448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674288448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679452944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="49000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="57000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="46000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="0"/>
+              <a:t>Peptide</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:t>-spectrum matches</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" i="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>suspended (0.3-2.7 um)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:srgbClr val="0070C0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2422</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-419F-FF47-8DCA-E8B82ED8B311}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>118</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-419F-FF47-8DCA-E8B82ED8B311}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-419F-FF47-8DCA-E8B82ED8B311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sinking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="24000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="55000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+              </a:path>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>262</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-419F-FF47-8DCA-E8B82ED8B311}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>664</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-419F-FF47-8DCA-E8B82ED8B311}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'100-965 comparison'!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-419F-FF47-8DCA-E8B82ED8B311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="679452944"/>
+        <c:axId val="674288448"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="679452944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674288448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674288448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679452944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="21000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="49000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="57000">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+                <a:alpha val="46000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3978,6 +6122,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4257,6 +6441,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4762,8 +7026,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4790,8 +7054,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4871,6 +7135,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4881,6 +7152,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4892,9 +7170,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4912,6 +7192,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4924,10 +7207,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5248,6 +7531,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5267,7 +7561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5772,7 +8066,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6277,7 +8571,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6782,7 +9076,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7287,7 +9581,1582 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8055,16 +11924,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8089,10 +11958,613 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF29FA0-4A79-0045-B5F8-5072123E3030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA6652D-9435-1845-A487-77701331C060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C06DFA2-6C1E-ED4B-80F2-14FE5CF23924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2584</cdr:x>
+      <cdr:y>0.125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42526</cdr:x>
+      <cdr:y>0.19767</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1416050" y="546100"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>suspended </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69293</cdr:x>
+      <cdr:y>0.11919</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85979</cdr:x>
+      <cdr:y>0.19186</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3797300" y="520700"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sinking </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2584</cdr:x>
+      <cdr:y>0.125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42526</cdr:x>
+      <cdr:y>0.19767</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1416050" y="546100"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>suspended </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69293</cdr:x>
+      <cdr:y>0.11919</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85979</cdr:x>
+      <cdr:y>0.19186</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3797300" y="520700"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sinking </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2584</cdr:x>
+      <cdr:y>0.125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42526</cdr:x>
+      <cdr:y>0.19767</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1416050" y="546100"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>suspended </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69293</cdr:x>
+      <cdr:y>0.11919</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85979</cdr:x>
+      <cdr:y>0.19186</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3797300" y="520700"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sinking </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -8555,8 +13027,8 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8595,31 +13067,31 @@
         <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -9643,10 +14115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91425-9F4A-7E4E-B842-3368493BFFE4}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9655,28 +14127,34 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="50" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9689,8 +14167,17 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1406</v>
+      </c>
+      <c r="F3">
+        <v>2422</v>
+      </c>
+      <c r="G3">
+        <v>21252</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9703,28 +14190,37 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>118</v>
+      </c>
+      <c r="G4">
+        <v>15893</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50" customHeight="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>94</v>
@@ -9735,10 +14231,19 @@
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>213</v>
+      </c>
+      <c r="F8">
+        <v>262</v>
+      </c>
+      <c r="G8">
+        <v>8580</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>965</v>
@@ -9748,6 +14253,15 @@
       </c>
       <c r="D9">
         <v>2</v>
+      </c>
+      <c r="E9">
+        <v>226</v>
+      </c>
+      <c r="F9">
+        <v>664</v>
+      </c>
+      <c r="G9">
+        <v>24005</v>
       </c>
     </row>
   </sheetData>
@@ -9778,233 +14292,233 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="32">
       <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4">
         <v>57.021464999999999</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0.984016</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4">
         <v>-1.032</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4">
         <v>-18.010565</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>14.015650000000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4">
         <v>15.994915000000001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4">
         <v>15.994915000000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4">
         <v>79.966329999999999</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4">
         <v>79.966329999999999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4">
         <v>79.956819999999993</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4">
         <v>383.22809999999998</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4">
         <v>27.994914999999999</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4">
         <v>42.01</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4">
         <v>37.96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4">
         <v>21.98</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4">
         <v>28.03</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4">
         <v>14.02</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4">
         <v>-15.99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4">
         <v>-17.03</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4">
         <v>28.03</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/etnp2017-p2-mclane-profile.xlsx
+++ b/analyses/etnp2017-p2-mclane-profile.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172DCE0-FF54-954C-9485-4DBFD7413335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242B1C7-C365-2B42-ACBF-8BD655105410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="460" windowWidth="42960" windowHeight="14540" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
+    <workbookView xWindow="3040" yWindow="5740" windowWidth="25600" windowHeight="14620" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
     <sheet name="100-965 comparison" sheetId="17" r:id="rId2"/>
     <sheet name="ptm" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>Sample running #</t>
   </si>
@@ -329,12 +335,6 @@
     <t xml:space="preserve">Sinking </t>
   </si>
   <si>
-    <t>NT1:2-9_94m_topnw1+4</t>
-  </si>
-  <si>
-    <t>NT5:4-19_965m_nw1+4</t>
-  </si>
-  <si>
     <t>de novo only peptides &gt; 50% ALC</t>
   </si>
   <si>
@@ -352,12 +352,15 @@
   <si>
     <t>% PSM Deamidated + deaminated</t>
   </si>
+  <si>
+    <t>268+269</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,6 +454,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,7 +1208,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1222,9 +1229,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-3E80-EA49-975A-67681E1282C7}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1285,14 +1289,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:f>'100-965 comparison'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1300,14 +1307,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:f>'100-965 comparison'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -1315,14 +1325,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$G$3:$G$4</c:f>
+              <c:f>'100-965 comparison'!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>21252</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18899</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>15893</c:v>
                 </c:pt>
               </c:numCache>
@@ -1401,7 +1414,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1422,9 +1435,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-3E80-EA49-975A-67681E1282C7}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1485,14 +1495,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:f>'100-965 comparison'!$D$9:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1500,14 +1513,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:f>'100-965 comparison'!$B$9:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -1515,14 +1531,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$G$8:$G$9</c:f>
+              <c:f>'100-965 comparison'!$G$9:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8580</c:v>
+                  <c:v>22679</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16308</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24005</c:v>
                 </c:pt>
               </c:numCache>
@@ -4024,7 +4043,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4037,16 +4056,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="1"/>
+              <a:rPr lang="en-US" sz="2000" i="1"/>
               <a:t>de novo</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t> only peptides</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39325873089393237"/>
+          <c:y val="1.366742596810934E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4060,7 +4087,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4147,6 +4174,39 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7058823529411761E-3"/>
+                  <c:y val="4.5558086560364046E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2826</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8CD7-0E46-855D-35AF5E24CBE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4167,9 +4227,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8CD7-0E46-855D-35AF5E24CBE5}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4186,7 +4243,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4210,34 +4267,23 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:f>'100-965 comparison'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4245,14 +4291,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:f>'100-965 comparison'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -4260,14 +4309,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$C$3:$C$4</c:f>
+              <c:f>'100-965 comparison'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3377</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2826</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1655</c:v>
                 </c:pt>
               </c:numCache>
@@ -4320,6 +4372,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1372549019607725E-2"/>
+                  <c:y val="2.2779043280182231E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4327,7 +4385,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1175</a:t>
+                      <a:t>1284</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -4354,7 +4412,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>6635</a:t>
+                      <a:t>5848</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -4372,6 +4430,30 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>6635</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4386,7 +4468,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4410,34 +4492,23 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:f>'100-965 comparison'!$D$9:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4445,14 +4516,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:f>'100-965 comparison'!$B$9:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -4460,14 +4534,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$C$8:$C$9</c:f>
+              <c:f>'100-965 comparison'!$C$9:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1175</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5848</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6635</c:v>
                 </c:pt>
               </c:numCache>
@@ -4552,7 +4629,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4565,7 +4642,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>depth (m)</a:t>
                 </a:r>
               </a:p>
@@ -4584,7 +4661,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4619,7 +4696,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4731,7 +4808,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4744,12 +4821,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="0"/>
+              <a:rPr lang="en-US" sz="2000" i="0"/>
               <a:t>identified proteins</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40948624363131081"/>
+          <c:y val="2.0501138952164009E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4763,7 +4848,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4850,6 +4935,39 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8431372549019607E-3"/>
+                  <c:y val="2.2779043280182231E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1170</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3659-4544-B0DD-BA7D9A7032D6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4870,9 +4988,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-3659-4544-B0DD-BA7D9A7032D6}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4889,7 +5004,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4913,34 +5028,23 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:f>'100-965 comparison'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4948,14 +5052,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:f>'100-965 comparison'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -4963,14 +5070,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$E$3:$E$4</c:f>
+              <c:f>'100-965 comparison'!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -5030,7 +5140,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>213</a:t>
+                      <a:t>317</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5057,7 +5167,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>226</a:t>
+                      <a:t>339</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5075,6 +5185,30 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>226</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5089,7 +5223,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5133,14 +5267,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:f>'100-965 comparison'!$D$9:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5148,14 +5285,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:f>'100-965 comparison'!$B$9:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -5163,14 +5303,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$E$8:$E$9</c:f>
+              <c:f>'100-965 comparison'!$E$9:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>213</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
@@ -5255,7 +5398,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5268,7 +5411,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>depth (m)</a:t>
                 </a:r>
               </a:p>
@@ -5287,7 +5430,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5322,7 +5465,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5434,7 +5577,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5447,17 +5590,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="0"/>
+              <a:rPr lang="en-US" sz="2000" i="0"/>
               <a:t>Peptide</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" i="0" baseline="0"/>
               <a:t>-spectrum matches</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" i="0"/>
+            <a:endParaRPr lang="en-US" sz="2000" i="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36768232206268331"/>
+          <c:y val="3.4168564920273349E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5471,7 +5622,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5558,6 +5709,39 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.411764705882353E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1804</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-419F-FF47-8DCA-E8B82ED8B311}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5578,9 +5762,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-419F-FF47-8DCA-E8B82ED8B311}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5597,7 +5778,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5621,34 +5802,23 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$3:$D$4</c:f>
+              <c:f>'100-965 comparison'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5656,14 +5826,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$3:$B$4</c:f>
+              <c:f>'100-965 comparison'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -5671,14 +5844,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$F$3:$F$4</c:f>
+              <c:f>'100-965 comparison'!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2422</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
@@ -5738,7 +5914,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>262</a:t>
+                      <a:t>342</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5765,7 +5941,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>664</a:t>
+                      <a:t>509</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5783,6 +5959,30 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>664</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5797,7 +5997,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5841,14 +6041,17 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$D$8:$D$9</c:f>
+              <c:f>'100-965 comparison'!$D$9:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5856,14 +6059,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100-965 comparison'!$B$8:$B$9</c:f>
+              <c:f>'100-965 comparison'!$B$9:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>965</c:v>
                 </c:pt>
               </c:numCache>
@@ -5871,14 +6077,17 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'100-965 comparison'!$F$8:$F$9</c:f>
+              <c:f>'100-965 comparison'!$F$9:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>262</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>664</c:v>
                 </c:pt>
               </c:numCache>
@@ -5963,7 +6172,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5976,7 +6185,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>depth (m)</a:t>
                 </a:r>
               </a:p>
@@ -5995,7 +6204,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6030,7 +6239,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11925,15 +12134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11960,16 +12169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11999,15 +12208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12038,13 +12247,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12111,7 +12320,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -12222,7 +12431,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
@@ -12239,6 +12448,169 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22546</cdr:x>
+      <cdr:y>0.11589</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39232</cdr:x>
+      <cdr:y>0.18856</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1825371" y="646113"/>
+          <a:ext cx="1350940" cy="405157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>suspended </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68666</cdr:x>
+      <cdr:y>0.11236</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85352</cdr:x>
+      <cdr:y>0.18503</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5559335" y="626420"/>
+          <a:ext cx="1350940" cy="405157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sinking </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12274,7 +12646,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -12385,170 +12757,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sinking </a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.2584</cdr:x>
-      <cdr:y>0.125</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.42526</cdr:x>
-      <cdr:y>0.19767</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5E656-48EB-5247-A3D6-D31E1B0020CA}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1416050" y="546100"/>
-          <a:ext cx="914400" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>suspended </a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.69293</cdr:x>
-      <cdr:y>0.11919</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.85979</cdr:x>
-      <cdr:y>0.19186</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DCA4D0-3347-C647-BC53-7E8414DB7BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3797300" y="520700"/>
-          <a:ext cx="914400" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+            <a:rPr lang="en-US" sz="2000" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
@@ -13031,14 +13240,14 @@
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="80">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13073,7 +13282,7 @@
         <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>41</v>
@@ -13094,7 +13303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>230</v>
       </c>
@@ -13155,7 +13364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>231</v>
       </c>
@@ -13216,7 +13425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>232</v>
       </c>
@@ -13277,7 +13486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>233</v>
       </c>
@@ -13338,7 +13547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>234</v>
       </c>
@@ -13399,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>235</v>
       </c>
@@ -13455,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>238</v>
       </c>
@@ -13484,7 +13693,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>239</v>
       </c>
@@ -13513,7 +13722,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240</v>
       </c>
@@ -13542,7 +13751,7 @@
         <v>5766</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>241</v>
       </c>
@@ -13571,7 +13780,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>242</v>
       </c>
@@ -13600,7 +13809,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>243</v>
       </c>
@@ -13629,7 +13838,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>246</v>
       </c>
@@ -13658,7 +13867,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>247</v>
       </c>
@@ -13687,7 +13896,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>248</v>
       </c>
@@ -13716,7 +13925,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>249</v>
       </c>
@@ -13745,7 +13954,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>250</v>
       </c>
@@ -13774,7 +13983,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>251</v>
       </c>
@@ -13803,7 +14012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>264</v>
       </c>
@@ -13832,7 +14041,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>265</v>
       </c>
@@ -13861,7 +14070,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>266</v>
       </c>
@@ -13890,7 +14099,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>267</v>
       </c>
@@ -13919,7 +14128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>268</v>
       </c>
@@ -13948,7 +14157,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>269</v>
       </c>
@@ -13977,7 +14186,7 @@
         <v>6635</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>270</v>
       </c>
@@ -13991,7 +14200,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>271</v>
       </c>
@@ -14005,7 +14214,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>236</v>
       </c>
@@ -14034,7 +14243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>237</v>
       </c>
@@ -14057,7 +14266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>244</v>
       </c>
@@ -14086,7 +14295,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>245</v>
       </c>
@@ -14115,26 +14324,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD91425-9F4A-7E4E-B842-3368493BFFE4}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -14142,21 +14351,21 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>231</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -14177,97 +14386,143 @@
         <v>21252</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>18</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>233</v>
       </c>
       <c r="B4">
+        <v>265</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2826</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1170</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1804</v>
+      </c>
+      <c r="G4" s="9">
+        <v>18899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>243</v>
+      </c>
+      <c r="B5">
         <v>965</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1655</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>24</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>118</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>15893</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>96</v>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8">
-        <v>94</v>
-      </c>
-      <c r="C8">
-        <v>1175</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>213</v>
-      </c>
-      <c r="F8">
-        <v>262</v>
-      </c>
-      <c r="G8">
-        <v>8580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>94</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>379</v>
       </c>
       <c r="B9">
-        <v>965</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>6635</v>
+        <v>1284</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
+        <v>317</v>
+      </c>
+      <c r="F9">
+        <v>342</v>
+      </c>
+      <c r="G9">
+        <v>22679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>278</v>
+      </c>
+      <c r="B10">
+        <v>265</v>
+      </c>
+      <c r="C10">
+        <v>5848</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>339</v>
+      </c>
+      <c r="F10">
+        <v>509</v>
+      </c>
+      <c r="G10">
+        <v>16308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>965</v>
+      </c>
+      <c r="C11">
+        <v>6635</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>226</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>664</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>24005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14283,14 +14538,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="32">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -14301,7 +14556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -14312,7 +14567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -14323,7 +14578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -14334,7 +14589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -14345,7 +14600,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -14356,7 +14611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -14367,7 +14622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -14378,7 +14633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -14389,7 +14644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -14400,7 +14655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -14411,7 +14666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
@@ -14422,7 +14677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -14433,7 +14688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -14444,7 +14699,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -14455,7 +14710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -14466,7 +14721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -14477,7 +14732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
@@ -14488,7 +14743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -14499,7 +14754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -14510,7 +14765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>

--- a/analyses/etnp2017-p2-mclane-profile.xlsx
+++ b/analyses/etnp2017-p2-mclane-profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242B1C7-C365-2B42-ACBF-8BD655105410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB18AF6F-5385-3C4A-B09E-1CA88EE7E029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="5740" windowWidth="25600" windowHeight="14620" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{464168A7-7287-7249-B16E-B55931B8488C}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ptm" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,13 +452,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,6 +1230,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8818-604D-8D58-15736B6AF4BA}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1435,6 +1439,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8818-604D-8D58-15736B6AF4BA}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4227,6 +4234,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-58A4-BA48-8A4F-7333A3B7BC9C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4452,6 +4462,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-58A4-BA48-8A4F-7333A3B7BC9C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4988,6 +5001,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8F53-BD42-97DA-DF4E77D74157}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5207,6 +5223,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8F53-BD42-97DA-DF4E77D74157}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5762,6 +5781,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C137-C445-8F1B-A78A3B9A0F82}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5981,6 +6003,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C137-C445-8F1B-A78A3B9A0F82}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11940,16 +11965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13235,9 +13260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FAA684-DE3F-5A4C-BBF8-96E0D7E03E10}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13348,7 +13373,7 @@
         <v>0.1555122900949136</v>
       </c>
       <c r="O2">
-        <f>N2*100</f>
+        <f t="shared" ref="O2:O7" si="0">N2*100</f>
         <v>15.55122900949136</v>
       </c>
       <c r="R2" s="4">
@@ -13409,7 +13434,7 @@
         <v>0.15597722960151802</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="0">N3*100</f>
+        <f t="shared" si="0"/>
         <v>15.597722960151803</v>
       </c>
       <c r="R3" s="4">
@@ -14337,11 +14362,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -14393,19 +14418,19 @@
       <c r="B4">
         <v>265</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2826</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1170</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>1804</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>18899</v>
       </c>
     </row>
@@ -14433,11 +14458,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -14497,7 +14522,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B11">
